--- a/DP.xlsx
+++ b/DP.xlsx
@@ -524,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.0009982585906982422</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001050472259521484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -766,7 +766,7 @@
         <v>16</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.0009927749633789062</v>
       </c>
     </row>
     <row r="31">
